--- a/biology/Médecine/Félix_Poilleux/Félix_Poilleux.xlsx
+++ b/biology/Médecine/Félix_Poilleux/Félix_Poilleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Poilleux</t>
+          <t>Félix_Poilleux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Poilleux ou Félix Charles Poilleux est un chirurgien, professeur de médecine et écrivain français né le 11 octobre 1903 à Paris et décédé le 13 août 1981 à Breuilpont[1].
-Il fut président de l'Académie de Chirurgie en 1976[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Poilleux ou Félix Charles Poilleux est un chirurgien, professeur de médecine et écrivain français né le 11 octobre 1903 à Paris et décédé le 13 août 1981 à Breuilpont.
+Il fut président de l'Académie de Chirurgie en 1976.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Poilleux</t>
+          <t>Félix_Poilleux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chirurgien des hôpitaux de Paris jusqu'en 1970. Il devient professeur de séméiologie et clinique chirurgicale la Faculté de médecine de Paris jusqu'en 1974.
-Il est élu en 1974 à Académie de médecine puis à Académie nationale de chirurgie[3].
-Il fut président de l'Académie de chirurgie en 1976[4],[5].
-Félix Poilleux est surtout connu pour ces ouvrages médicaux sur la chirurgie[6].
+Il est élu en 1974 à Académie de médecine puis à Académie nationale de chirurgie.
+Il fut président de l'Académie de chirurgie en 1976,.
+Félix Poilleux est surtout connu pour ces ouvrages médicaux sur la chirurgie.
 Il est également officier de la légion d'honneur et chevalier de l'ordre national du Mérite.
-Son fils Jacques Poilleux est également chirurgien. Il est membre de Académie nationale de chirurgie et fut président de cette institution en 2009[4], vice-président en 2010 et secrétaire général de 2002 à 2006[4],[7].
+Son fils Jacques Poilleux est également chirurgien. Il est membre de Académie nationale de chirurgie et fut président de cette institution en 2009, vice-président en 2010 et secrétaire général de 2002 à 2006,.
 </t>
         </is>
       </c>
